--- a/гистерезис/параметры схемы, гистерезис.xlsx
+++ b/гистерезис/параметры схемы, гистерезис.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\projlab\3 semester\magnetostriction proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\projlab\3 semester\magnetostriction proj\гистерезис\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>R0, Ом</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>A -- вход, В -- выход</t>
+  </si>
+  <si>
+    <t>tau, s</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -375,7 +378,7 @@
     <col min="6" max="6" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,8 +397,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.3</v>
       </c>
@@ -413,6 +419,9 @@
       </c>
       <c r="F2" t="s">
         <v>6</v>
+      </c>
+      <c r="G2">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
